--- a/product list and comparison/product_list_update.xlsx
+++ b/product list and comparison/product_list_update.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
